--- a/biology/Médecine/1194_en_santé_et_médecine/1194_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1194_en_santé_et_médecine/1194_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1194_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1194_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1194 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1194_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1194_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chartre aumônière d'Éléonore, comtesse de Valois, qui comporte d'importantes donations aux lépreux de La Ferté-Milon, de Largny-sur-Automne, de Houllon, près Mareuil, et de Crépy-en-Valois[1].
-« Les religieux de Citeaux renv[oient] de jure les novices démontrés lépreux par l'épreuve », mais c'est selon une disposition générale à l'égard des lépreux « qui ne vise pas la contagion, mais l'aggravation des charges qui pourrait résulter de leur entretien[2] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chartre aumônière d'Éléonore, comtesse de Valois, qui comporte d'importantes donations aux lépreux de La Ferté-Milon, de Largny-sur-Automne, de Houllon, près Mareuil, et de Crépy-en-Valois.
+« Les religieux de Citeaux renv[oient] de jure les novices démontrés lépreux par l'épreuve », mais c'est selon une disposition générale à l'égard des lépreux « qui ne vise pas la contagion, mais l'aggravation des charges qui pourrait résulter de leur entretien ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1194_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1194_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation de la léproserie du Chartrage à Mortagne, par Geoffroy III, comte du Perche[3].
-Fondation de la léproserie d'Avallon, en Bourgogne, établissement qui sera réuni au collège de la ville en 1555, et dont les bâtiments accueillent aujourd'hui le musée de l'Avallonnais[4].
-1193 ou 1194 : une léproserie Saint-Lazare est attestée à Semur, en Auxois[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de la léproserie du Chartrage à Mortagne, par Geoffroy III, comte du Perche.
+Fondation de la léproserie d'Avallon, en Bourgogne, établissement qui sera réuni au collège de la ville en 1555, et dont les bâtiments accueillent aujourd'hui le musée de l'Avallonnais.
+1193 ou 1194 : une léproserie Saint-Lazare est attestée à Semur, en Auxois.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1194_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1194_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Averroès publie la deuxième version de son Kitab al-kulliyat fil-tibb (« Livre des généralités sur la médecine »), également connu sous le titre de Colliget et dont la première version date de 1166[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Averroès publie la deuxième version de son Kitab al-kulliyat fil-tibb (« Livre des généralités sur la médecine »), également connu sous le titre de Colliget et dont la première version date de 1166.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1194_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1194_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,11 +622,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacob Anatoli (en) (mort en 1256), médecin juif de Marseille, auteur en 1231-1232 d'une traduction de l'arabe en hébreu des commentaires par Averroès de la Logique d'Aristote et de l'Introduction aux Catégories d'Aristote de Porphyre[7].
-Nahmanide (mort en 1270), exégète, poète, philosophe, kabbaliste et médecin juif catalan émigré en Palestine  [8].
-Vers 1194[9] ou en 1203[10] : Ibn Abi Usaybi'a (mort en 1269[10] ou 1270[9]), médecin damascène, historien de la médecine.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacob Anatoli (en) (mort en 1256), médecin juif de Marseille, auteur en 1231-1232 d'une traduction de l'arabe en hébreu des commentaires par Averroès de la Logique d'Aristote et de l'Introduction aux Catégories d'Aristote de Porphyre.
+Nahmanide (mort en 1270), exégète, poète, philosophe, kabbaliste et médecin juif catalan émigré en Palestine  .
+Vers 1194 ou en 1203 : Ibn Abi Usaybi'a (mort en 1269 ou 1270), médecin damascène, historien de la médecine.
 </t>
         </is>
       </c>
